--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanch\OneDrive\문서\openSource_odiga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50177CDC-3387-455D-8FA8-601F71BF4917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D321A8-E18E-4998-9C07-E2A38F502F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>생명자원과학대학</t>
   </si>
@@ -28,9 +28,6 @@
     <t>자연과학대학2호관</t>
   </si>
   <si>
-    <t>생명과학기술혁신센터</t>
-  </si>
-  <si>
     <t>평생교육원</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>인문대학1호관</t>
   </si>
   <si>
-    <t>제주본부</t>
-  </si>
-  <si>
     <t>인재양성관</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
   </si>
   <si>
     <t>제주대학교골프아카데미</t>
-  </si>
-  <si>
-    <t>아열대원예산업연구소</t>
   </si>
   <si>
     <t>원자력과학기술연구소</t>
@@ -256,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,19 +282,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,12 +298,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9FAFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,12 +319,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -359,14 +335,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,86 +848,85 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.8984375" customWidth="1"/>
-    <col min="2" max="5" width="23.5" customWidth="1"/>
+    <col min="1" max="5" width="24.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4">
         <v>33.453463758142803</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>126.558351054968</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>33.453463758142803</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>126.558351054968</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4">
         <v>33.452781372955101</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>126.558513160525</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>33.452781372955101</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>126.558513160525</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>33.455039999999997</v>
+      </c>
+      <c r="C4" s="4">
+        <v>126.5624</v>
+      </c>
+      <c r="D4" s="2">
         <v>33.454837030098197</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="2">
         <v>126.561691880651</v>
       </c>
-      <c r="D4" s="3">
-        <v>33.454837030098197</v>
-      </c>
-      <c r="E4" s="3">
-        <v>126.561691880651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>33.454239999999999</v>
@@ -965,16 +934,16 @@
       <c r="C5" s="4">
         <v>126.56218</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>33.454057007338903</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>126.561652781634</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4">
         <v>33.454210000000003</v>
@@ -982,33 +951,33 @@
       <c r="C6" s="4">
         <v>126.56331</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>33.453885508175198</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>126.562874430932</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5">
-        <v>33.455039999999997</v>
-      </c>
-      <c r="C7" s="5">
-        <v>126.5624</v>
-      </c>
-      <c r="D7" s="3">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>33.454740000000001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>126.56428</v>
+      </c>
+      <c r="D7" s="2">
         <v>33.4549415658241</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>126.563210633754</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4">
         <v>33.45523</v>
@@ -1016,50 +985,50 @@
       <c r="C8" s="4">
         <v>126.5643</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>33.455335099720898</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>126.563590498887</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5">
-        <v>33.459090000000003</v>
-      </c>
-      <c r="C9" s="5">
-        <v>126.56308</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="4">
+        <v>33.457439999999998</v>
+      </c>
+      <c r="C9" s="4">
+        <v>126.56316</v>
+      </c>
+      <c r="D9" s="2">
         <v>33.458262368981501</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>126.562758349673</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4">
         <v>33.4570397569615</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>126.563770192852</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>33.4570397569615</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>126.563770192852</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4">
         <v>33.4570397569615</v>
@@ -1067,118 +1036,118 @@
       <c r="C11" s="4">
         <v>126.563770192852</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>33.4572401950482</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>126.564363471503</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4">
-        <v>33.45532</v>
+        <v>33.454740000000001</v>
       </c>
       <c r="C12" s="4">
-        <v>126.56598</v>
-      </c>
-      <c r="D12" s="3">
+        <v>126.56428</v>
+      </c>
+      <c r="D12" s="2">
         <v>33.454842070846098</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>126.56633035719</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4">
         <v>33.457955730273497</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>126.56465300308</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>33.457955730273497</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>126.56465300308</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="4">
-        <v>33.458689999999997</v>
+        <v>33.457769999999996</v>
       </c>
       <c r="C14" s="4">
-        <v>126.56116</v>
-      </c>
-      <c r="D14" s="3">
+        <v>126.56117</v>
+      </c>
+      <c r="D14" s="2">
         <v>33.458484057426297</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>126.560433855602</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
         <v>33.457086201835999</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>126.565442553079</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>33.457086201835999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>126.565442553079</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
         <v>33.457516536044402</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>126.566034690642</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>33.457516536044402</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>126.566034690642</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
         <v>33.456405024653399</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>126.565308810337</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>33.456405024653399</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>126.565308810337</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="4">
         <v>33.454740000000001</v>
@@ -1186,220 +1155,220 @@
       <c r="C18" s="4">
         <v>126.56428</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>33.4547092436122</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>126.56508870836601</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4">
         <v>33.452865807311703</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>126.563901338793</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>33.452865807311703</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>126.563901338793</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4">
         <v>33.452865807311703</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>126.563901338793</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>33.452865807311703</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>126.563901338793</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4">
         <v>33.452865807311703</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>126.563901338793</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>33.452865807311703</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>126.563901338793</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4">
+        <v>33.451560000000001</v>
+      </c>
+      <c r="C22" s="4">
+        <v>126.5592</v>
+      </c>
+      <c r="D22" s="2">
         <v>33.452076275568601</v>
       </c>
-      <c r="C22" s="1">
+      <c r="E22" s="2">
         <v>126.55862697831699</v>
       </c>
-      <c r="D22" s="3">
-        <v>33.452076275568601</v>
-      </c>
-      <c r="E22" s="3">
-        <v>126.55862697831699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4">
-        <v>33.456200000000003</v>
+        <v>33.455599999999997</v>
       </c>
       <c r="C23" s="4">
-        <v>126.56386000000001</v>
-      </c>
-      <c r="D23" s="3">
+        <v>126.56385</v>
+      </c>
+      <c r="D23" s="2">
         <v>33.456061533809802</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>126.56441507921799</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="1">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4">
         <v>33.452345682187399</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>126.56277728916299</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>33.452345682187399</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>126.56277728916299</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="5">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4">
         <v>33.452957482686898</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>126.561773937651</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>33.452957482686898</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>126.561773937651</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4">
         <v>33.456768628665799</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>126.563586006413</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>33.456768628665799</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>126.563586006413</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="4">
-        <v>33.456719999999997</v>
+        <v>33.457430000000002</v>
       </c>
       <c r="C27" s="4">
-        <v>126.56005</v>
-      </c>
-      <c r="D27" s="3">
+        <v>126.56117999999999</v>
+      </c>
+      <c r="D27" s="2">
         <v>33.457376361820998</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>126.560157093507</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="1">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4">
         <v>33.459366178116703</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>126.561297991665</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>33.459366178116703</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>126.561297991665</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="1">
+        <v>64</v>
+      </c>
+      <c r="B29" s="4">
         <v>33.450839840718203</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>126.55827831189799</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>33.450839840718203</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>126.55827831189799</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4">
         <v>33.459772940455998</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>126.56350910402099</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>33.459772940455998</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>126.56350910402099</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4">
         <v>33.458829999999999</v>
@@ -1407,709 +1376,676 @@
       <c r="C31" s="4">
         <v>126.56117</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>33.458775326604403</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>126.561849545466</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4">
+        <v>33.4587799830216</v>
+      </c>
+      <c r="C32" s="4">
+        <v>126.56252986634701</v>
+      </c>
+      <c r="D32" s="2">
+        <v>33.4587799830216</v>
+      </c>
+      <c r="E32" s="2">
+        <v>126.56252986634701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4">
+        <v>33.457439999999998</v>
+      </c>
+      <c r="C33" s="4">
+        <v>126.56316</v>
+      </c>
+      <c r="D33" s="2">
+        <v>33.458397655403097</v>
+      </c>
+      <c r="E33" s="2">
+        <v>126.56341112097201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="4">
+        <v>33.458166951720401</v>
+      </c>
+      <c r="C34" s="4">
+        <v>126.565751785003</v>
+      </c>
+      <c r="D34" s="2">
+        <v>33.458166951720401</v>
+      </c>
+      <c r="E34" s="2">
+        <v>126.565751785003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4">
+        <v>33.457995642520999</v>
+      </c>
+      <c r="C35" s="4">
+        <v>126.565107258816</v>
+      </c>
+      <c r="D35" s="2">
+        <v>33.457995642520999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>126.565107258816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="4">
+        <v>33.457798707328699</v>
+      </c>
+      <c r="C36" s="4">
+        <v>126.562946223411</v>
+      </c>
+      <c r="D36" s="2">
+        <v>33.457798707328699</v>
+      </c>
+      <c r="E36" s="2">
+        <v>126.562946223411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4">
+        <v>33.457747689935999</v>
+      </c>
+      <c r="C37" s="4">
+        <v>126.56382042915401</v>
+      </c>
+      <c r="D37" s="2">
+        <v>33.457747689935999</v>
+      </c>
+      <c r="E37" s="2">
+        <v>126.56382042915401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="4">
+        <v>33.455856118826901</v>
+      </c>
+      <c r="C38" s="4">
+        <v>126.566258083721</v>
+      </c>
+      <c r="D38" s="2">
+        <v>33.455856118826901</v>
+      </c>
+      <c r="E38" s="2">
+        <v>126.566258083721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="4">
+        <v>33.4557</v>
+      </c>
+      <c r="C39" s="4">
+        <v>126.56115</v>
+      </c>
+      <c r="D39" s="2">
+        <v>33.4554197057195</v>
+      </c>
+      <c r="E39" s="2">
+        <v>126.55947052079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4">
+        <v>33.454740000000001</v>
+      </c>
+      <c r="C40" s="4">
+        <v>126.56428</v>
+      </c>
+      <c r="D40" s="2">
+        <v>33.453559050829398</v>
+      </c>
+      <c r="E40" s="2">
+        <v>126.566834199068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>33.452397254174599</v>
+      </c>
+      <c r="C41" s="4">
+        <v>126.56655226174</v>
+      </c>
+      <c r="D41" s="2">
+        <v>33.452397254174599</v>
+      </c>
+      <c r="E41" s="2">
+        <v>126.56655226174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="4">
+        <v>33.451442781491799</v>
+      </c>
+      <c r="C42" s="4">
+        <v>126.563048019329</v>
+      </c>
+      <c r="D42" s="2">
+        <v>33.451442781491799</v>
+      </c>
+      <c r="E42" s="2">
+        <v>126.563048019329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="4">
+        <v>33.4514008717575</v>
+      </c>
+      <c r="C43" s="4">
+        <v>126.558850887886</v>
+      </c>
+      <c r="D43" s="2">
+        <v>33.4514008717575</v>
+      </c>
+      <c r="E43" s="2">
+        <v>126.558850887886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="4">
+        <v>33.452663315646603</v>
+      </c>
+      <c r="C44" s="5">
+        <v>126.560812784278</v>
+      </c>
+      <c r="D44" s="2">
+        <v>33.452230650195098</v>
+      </c>
+      <c r="E44" s="2">
+        <v>126.560841854323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="4">
+        <v>33.452663315646603</v>
+      </c>
+      <c r="C45" s="5">
+        <v>126.560812784278</v>
+      </c>
+      <c r="D45" s="2">
+        <v>33.452663315646603</v>
+      </c>
+      <c r="E45" s="1">
+        <v>126.560812784278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
+        <v>33.453130000000002</v>
+      </c>
+      <c r="C46" s="4">
+        <v>126.56037000000001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>33.452410867022103</v>
+      </c>
+      <c r="E46" s="2">
+        <v>126.560176784909</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="4">
+        <v>33.453130000000002</v>
+      </c>
+      <c r="C47" s="4">
+        <v>126.55978</v>
+      </c>
+      <c r="D47" s="2">
+        <v>33.452294187657003</v>
+      </c>
+      <c r="E47" s="2">
+        <v>126.55969068168299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4">
+        <v>33.452854048347398</v>
+      </c>
+      <c r="C48" s="4">
+        <v>126.55993523335199</v>
+      </c>
+      <c r="D48" s="2">
+        <v>33.452854048347398</v>
+      </c>
+      <c r="E48" s="2">
+        <v>126.55993523335199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="4">
+        <v>33.453533816712202</v>
+      </c>
+      <c r="C49" s="4">
+        <v>126.560305563244</v>
+      </c>
+      <c r="D49" s="2">
+        <v>33.453533816712202</v>
+      </c>
+      <c r="E49" s="2">
+        <v>126.560305563244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="4">
+        <v>33.453533816712202</v>
+      </c>
+      <c r="C50" s="4">
+        <v>126.560305563244</v>
+      </c>
+      <c r="D50" s="2">
+        <v>33.453533816712202</v>
+      </c>
+      <c r="E50" s="2">
+        <v>126.560305563244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4">
+        <v>33.453533816712202</v>
+      </c>
+      <c r="C51" s="4">
+        <v>126.560305563244</v>
+      </c>
+      <c r="D51" s="2">
+        <v>33.453533816712202</v>
+      </c>
+      <c r="E51" s="2">
+        <v>126.560305563244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="4">
+        <v>33.454659999999997</v>
+      </c>
+      <c r="C52" s="4">
+        <v>126.56104999999999</v>
+      </c>
+      <c r="D52" s="2">
+        <v>33.453632391261998</v>
+      </c>
+      <c r="E52" s="2">
+        <v>126.55950107009301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="4">
+        <v>33.4540791799812</v>
+      </c>
+      <c r="C53" s="4">
+        <v>126.56027592120699</v>
+      </c>
+      <c r="D53" s="2">
+        <v>33.4540791799812</v>
+      </c>
+      <c r="E53" s="2">
+        <v>126.56027592120699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="4">
+        <v>33.4540791799812</v>
+      </c>
+      <c r="C54" s="4">
+        <v>126.56027592120699</v>
+      </c>
+      <c r="D54" s="2">
+        <v>33.4540791799812</v>
+      </c>
+      <c r="E54" s="2">
+        <v>126.56027592120699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="4">
+        <v>33.455006568496501</v>
+      </c>
+      <c r="C55" s="4">
+        <v>126.560556273347</v>
+      </c>
+      <c r="D55" s="2">
+        <v>33.455006568496501</v>
+      </c>
+      <c r="E55" s="2">
+        <v>126.560556273347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="4">
+        <v>33.456229999999998</v>
+      </c>
+      <c r="C56" s="4">
+        <v>126.56117</v>
+      </c>
+      <c r="D56" s="2">
+        <v>33.456022952285203</v>
+      </c>
+      <c r="E56" s="2">
+        <v>126.560508121943</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="4">
+        <v>33.456659999999999</v>
+      </c>
+      <c r="C57" s="4">
+        <v>126.56322</v>
+      </c>
+      <c r="D57" s="2">
+        <v>33.457209845251001</v>
+      </c>
+      <c r="E57" s="2">
+        <v>126.56278514527401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="4">
+        <v>33.457740000000001</v>
+      </c>
+      <c r="C58" s="4">
+        <v>126.55973</v>
+      </c>
+      <c r="D58" s="2">
+        <v>33.458130541344097</v>
+      </c>
+      <c r="E58" s="2">
+        <v>126.559900511121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="4">
+        <v>33.455679046767997</v>
+      </c>
+      <c r="C59" s="4">
+        <v>126.55824033099</v>
+      </c>
+      <c r="D59" s="2">
+        <v>33.455679046767997</v>
+      </c>
+      <c r="E59" s="2">
+        <v>126.55824033099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="1">
-        <v>33.4587799830216</v>
-      </c>
-      <c r="C32" s="1">
-        <v>126.56252986634701</v>
-      </c>
-      <c r="D32" s="3">
-        <v>33.4587799830216</v>
-      </c>
-      <c r="E32" s="3">
-        <v>126.56252986634701</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5">
-        <v>33.458397655403097</v>
-      </c>
-      <c r="C33" s="5">
-        <v>126.56341112097201</v>
-      </c>
-      <c r="D33" s="3">
-        <v>33.458397655403097</v>
-      </c>
-      <c r="E33" s="3">
-        <v>126.56341112097201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="7">
-        <v>33.458640943844102</v>
-      </c>
-      <c r="C34" s="7">
-        <v>126.56465226756301</v>
-      </c>
-      <c r="D34" s="3">
-        <v>33.458640943844102</v>
-      </c>
-      <c r="E34" s="3">
-        <v>126.56465226756301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="7">
-        <v>33.458517344767102</v>
-      </c>
-      <c r="C35" s="7">
-        <v>126.565400455161</v>
-      </c>
-      <c r="D35" s="3">
-        <v>33.458517344767102</v>
-      </c>
-      <c r="E35" s="3">
-        <v>126.565400455161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="5">
-        <v>33.458166951720401</v>
-      </c>
-      <c r="C36" s="5">
-        <v>126.565751785003</v>
-      </c>
-      <c r="D36" s="3">
-        <v>33.458166951720401</v>
-      </c>
-      <c r="E36" s="3">
-        <v>126.565751785003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="1">
-        <v>33.457995642520999</v>
-      </c>
-      <c r="C37" s="1">
-        <v>126.565107258816</v>
-      </c>
-      <c r="D37" s="3">
-        <v>33.457995642520999</v>
-      </c>
-      <c r="E37" s="3">
-        <v>126.565107258816</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="1">
-        <v>33.457798707328699</v>
-      </c>
-      <c r="C38" s="1">
-        <v>126.562946223411</v>
-      </c>
-      <c r="D38" s="3">
-        <v>33.457798707328699</v>
-      </c>
-      <c r="E38" s="3">
-        <v>126.562946223411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>33.457747689935999</v>
-      </c>
-      <c r="C39" s="1">
-        <v>126.56382042915401</v>
-      </c>
-      <c r="D39" s="3">
-        <v>33.457747689935999</v>
-      </c>
-      <c r="E39" s="3">
-        <v>126.56382042915401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="1">
-        <v>33.455856118826901</v>
-      </c>
-      <c r="C40" s="1">
-        <v>126.566258083721</v>
-      </c>
-      <c r="D40" s="3">
-        <v>33.455856118826901</v>
-      </c>
-      <c r="E40" s="3">
-        <v>126.566258083721</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="8">
-        <v>33.4554197057195</v>
-      </c>
-      <c r="C41" s="8">
-        <v>126.55947052079</v>
-      </c>
-      <c r="D41" s="3">
-        <v>33.4554197057195</v>
-      </c>
-      <c r="E41" s="3">
-        <v>126.55947052079</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="5">
-        <v>33.454560000000001</v>
-      </c>
-      <c r="C42" s="5">
-        <v>126.56690999999999</v>
-      </c>
-      <c r="D42" s="3">
-        <v>33.453559050829398</v>
-      </c>
-      <c r="E42" s="3">
-        <v>126.566834199068</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="B60" s="4">
+        <v>33.45158</v>
+      </c>
+      <c r="C60" s="4">
+        <v>126.55768999999999</v>
+      </c>
+      <c r="D60" s="2">
+        <v>33.450951567751602</v>
+      </c>
+      <c r="E60" s="2">
+        <v>126.55674240322401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="4">
+        <v>33.450379743866598</v>
+      </c>
+      <c r="C61" s="4">
+        <v>126.5569362204</v>
+      </c>
+      <c r="D61" s="2">
+        <v>33.450379743866598</v>
+      </c>
+      <c r="E61" s="2">
+        <v>126.5569362204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="4">
+        <v>33.451786508352399</v>
+      </c>
+      <c r="C62" s="4">
+        <v>126.55638053303799</v>
+      </c>
+      <c r="D62" s="2">
+        <v>33.451786508352399</v>
+      </c>
+      <c r="E62" s="2">
+        <v>126.55638053303799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="4">
+        <v>33.450976585061603</v>
+      </c>
+      <c r="C63" s="4">
+        <v>126.55806788707</v>
+      </c>
+      <c r="D63" s="2">
+        <v>33.450976585061603</v>
+      </c>
+      <c r="E63" s="2">
+        <v>126.55806788707</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>33.452397254174599</v>
-      </c>
-      <c r="C43" s="1">
-        <v>126.56655226174</v>
-      </c>
-      <c r="D43" s="3">
-        <v>33.452397254174599</v>
-      </c>
-      <c r="E43" s="3">
-        <v>126.56655226174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="7">
-        <v>33.451598346626</v>
-      </c>
-      <c r="C44" s="7">
-        <v>126.566913858137</v>
-      </c>
-      <c r="D44" s="3">
-        <v>33.451598346626</v>
-      </c>
-      <c r="E44" s="3">
-        <v>126.566913858137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="1">
-        <v>33.451442781491799</v>
-      </c>
-      <c r="C45" s="1">
-        <v>126.563048019329</v>
-      </c>
-      <c r="D45" s="3">
-        <v>33.451442781491799</v>
-      </c>
-      <c r="E45" s="3">
-        <v>126.563048019329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="1">
-        <v>33.4514008717575</v>
-      </c>
-      <c r="C46" s="1">
-        <v>126.558850887886</v>
-      </c>
-      <c r="D46" s="3">
-        <v>33.4514008717575</v>
-      </c>
-      <c r="E46" s="3">
-        <v>126.558850887886</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="1">
-        <v>33.452230650195098</v>
-      </c>
-      <c r="C47" s="1">
-        <v>126.560841854323</v>
-      </c>
-      <c r="D47" s="3">
-        <v>33.452230650195098</v>
-      </c>
-      <c r="E47" s="3">
-        <v>126.560841854323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="1">
-        <v>33.452663315646603</v>
-      </c>
-      <c r="C48">
-        <v>126.560812784278</v>
-      </c>
-      <c r="D48" s="3">
-        <v>33.452663315646603</v>
-      </c>
-      <c r="E48" s="2">
-        <v>126.560812784278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="1">
-        <v>33.452410867022103</v>
-      </c>
-      <c r="C49" s="1">
-        <v>126.560176784909</v>
-      </c>
-      <c r="D49" s="3">
-        <v>33.452410867022103</v>
-      </c>
-      <c r="E49" s="3">
-        <v>126.560176784909</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="5">
-        <v>33.452294187657003</v>
-      </c>
-      <c r="C50" s="5">
-        <v>126.55969068168299</v>
-      </c>
-      <c r="D50" s="3">
-        <v>33.452294187657003</v>
-      </c>
-      <c r="E50" s="3">
-        <v>126.55969068168299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="1">
-        <v>33.452854048347398</v>
-      </c>
-      <c r="C51" s="1">
-        <v>126.55993523335199</v>
-      </c>
-      <c r="D51" s="3">
-        <v>33.452854048347398</v>
-      </c>
-      <c r="E51" s="3">
-        <v>126.55993523335199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="1">
-        <v>33.453533816712202</v>
-      </c>
-      <c r="C52" s="1">
-        <v>126.560305563244</v>
-      </c>
-      <c r="D52" s="3">
-        <v>33.453533816712202</v>
-      </c>
-      <c r="E52" s="3">
-        <v>126.560305563244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="1">
-        <v>33.453533816712202</v>
-      </c>
-      <c r="C53" s="1">
-        <v>126.560305563244</v>
-      </c>
-      <c r="D53" s="3">
-        <v>33.453533816712202</v>
-      </c>
-      <c r="E53" s="3">
-        <v>126.560305563244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1">
-        <v>33.453533816712202</v>
-      </c>
-      <c r="C54" s="1">
-        <v>126.560305563244</v>
-      </c>
-      <c r="D54" s="3">
-        <v>33.453533816712202</v>
-      </c>
-      <c r="E54" s="3">
-        <v>126.560305563244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="5">
-        <v>33.454210000000003</v>
-      </c>
-      <c r="C55" s="5">
-        <v>126.55963</v>
-      </c>
-      <c r="D55" s="3">
-        <v>33.453632391261998</v>
-      </c>
-      <c r="E55" s="3">
-        <v>126.55950107009301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="1">
-        <v>33.4540791799812</v>
-      </c>
-      <c r="C56" s="1">
-        <v>126.56027592120699</v>
-      </c>
-      <c r="D56" s="3">
-        <v>33.4540791799812</v>
-      </c>
-      <c r="E56" s="3">
-        <v>126.56027592120699</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="1">
-        <v>33.4540791799812</v>
-      </c>
-      <c r="C57" s="1">
-        <v>126.56027592120699</v>
-      </c>
-      <c r="D57" s="3">
-        <v>33.4540791799812</v>
-      </c>
-      <c r="E57" s="3">
-        <v>126.56027592120699</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="1">
-        <v>33.455006568496501</v>
-      </c>
-      <c r="C58" s="1">
-        <v>126.560556273347</v>
-      </c>
-      <c r="D58" s="3">
-        <v>33.455006568496501</v>
-      </c>
-      <c r="E58" s="3">
-        <v>126.560556273347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="4">
-        <v>33.456229999999998</v>
-      </c>
-      <c r="C59" s="4">
-        <v>126.56117</v>
-      </c>
-      <c r="D59" s="3">
-        <v>33.456022952285203</v>
-      </c>
-      <c r="E59" s="3">
-        <v>126.560508121943</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="5">
-        <v>33.457209845251001</v>
-      </c>
-      <c r="C60" s="5">
-        <v>126.56278514527401</v>
-      </c>
-      <c r="D60" s="3">
-        <v>33.457209845251001</v>
-      </c>
-      <c r="E60" s="3">
-        <v>126.56278514527401</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="4">
-        <v>33.457740000000001</v>
-      </c>
-      <c r="C61" s="4">
-        <v>126.55973</v>
-      </c>
-      <c r="D61" s="3">
-        <v>33.458130541344097</v>
-      </c>
-      <c r="E61" s="3">
-        <v>126.559900511121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="1">
-        <v>33.455679046767997</v>
-      </c>
-      <c r="C62" s="1">
-        <v>126.55824033099</v>
-      </c>
-      <c r="D62" s="3">
-        <v>33.455679046767997</v>
-      </c>
-      <c r="E62" s="3">
-        <v>126.55824033099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="5">
-        <v>33.450699999999998</v>
-      </c>
-      <c r="C63" s="5">
-        <v>126.55775</v>
-      </c>
-      <c r="D63" s="3">
-        <v>33.450951567751602</v>
-      </c>
-      <c r="E63" s="3">
-        <v>126.55674240322401</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="1">
-        <v>33.450379743866598</v>
-      </c>
-      <c r="C64" s="1">
-        <v>126.5569362204</v>
-      </c>
-      <c r="D64" s="3">
-        <v>33.450379743866598</v>
-      </c>
-      <c r="E64" s="3">
-        <v>126.5569362204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="B64" s="4">
+        <v>33.452287541677897</v>
+      </c>
+      <c r="C64" s="4">
+        <v>126.55656082761</v>
+      </c>
+      <c r="D64" s="2">
+        <v>33.452287541677897</v>
+      </c>
+      <c r="E64" s="2">
+        <v>126.55656082761</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="1">
-        <v>33.451786508352399</v>
-      </c>
-      <c r="C65" s="1">
-        <v>126.55638053303799</v>
-      </c>
-      <c r="D65" s="3">
-        <v>33.451786508352399</v>
-      </c>
-      <c r="E65" s="3">
-        <v>126.55638053303799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="B65" s="4">
+        <v>33.4535344433503</v>
+      </c>
+      <c r="C65" s="4">
+        <v>126.55668355054399</v>
+      </c>
+      <c r="D65" s="2">
+        <v>33.4535344433503</v>
+      </c>
+      <c r="E65" s="2">
+        <v>126.55668355054399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="1">
-        <v>33.450976585061603</v>
-      </c>
-      <c r="C66" s="1">
-        <v>126.55806788707</v>
-      </c>
-      <c r="D66" s="3">
-        <v>33.450976585061603</v>
-      </c>
-      <c r="E66" s="3">
-        <v>126.55806788707</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="B66" s="4">
+        <v>33.45308</v>
+      </c>
+      <c r="C66" s="4">
+        <v>126.55758</v>
+      </c>
+      <c r="D66" s="2">
+        <v>33.452640586265098</v>
+      </c>
+      <c r="E66" s="2">
+        <v>126.556327783824</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="1">
-        <v>33.452287541677897</v>
-      </c>
-      <c r="C67" s="1">
-        <v>126.55656082761</v>
-      </c>
-      <c r="D67" s="3">
-        <v>33.452287541677897</v>
-      </c>
-      <c r="E67" s="3">
-        <v>126.55656082761</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="B67" s="4">
+        <v>33.454720000000002</v>
+      </c>
+      <c r="C67" s="4">
+        <v>126.56389</v>
+      </c>
+      <c r="D67" s="2">
+        <v>33.454516504545602</v>
+      </c>
+      <c r="E67" s="2">
+        <v>126.563478973569</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="1">
-        <v>33.4535344433503</v>
-      </c>
-      <c r="C68" s="1">
-        <v>126.55668355054399</v>
-      </c>
-      <c r="D68" s="3">
-        <v>33.4535344433503</v>
-      </c>
-      <c r="E68" s="3">
-        <v>126.55668355054399</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="B68" s="4">
+        <v>33.455629999999999</v>
+      </c>
+      <c r="C68" s="4">
+        <v>126.56385</v>
+      </c>
+      <c r="D68" s="2">
+        <v>33.455648860411003</v>
+      </c>
+      <c r="E68" s="2">
+        <v>126.564360673393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="5">
-        <v>33.452640586265098</v>
-      </c>
-      <c r="C69" s="5">
-        <v>126.556327783824</v>
-      </c>
-      <c r="D69" s="3">
-        <v>33.452640586265098</v>
-      </c>
-      <c r="E69" s="3">
-        <v>126.556327783824</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="4">
-        <v>33.454720000000002</v>
-      </c>
-      <c r="C70" s="4">
-        <v>126.56389</v>
-      </c>
-      <c r="D70" s="3">
-        <v>33.454516504545602</v>
-      </c>
-      <c r="E70" s="3">
-        <v>126.563478973569</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="4">
-        <v>33.455629999999999</v>
-      </c>
-      <c r="C71" s="4">
-        <v>126.56385</v>
-      </c>
-      <c r="D71" s="3">
-        <v>33.455648860411003</v>
-      </c>
-      <c r="E71" s="3">
-        <v>126.564360673393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="4">
+        <v>60</v>
+      </c>
+      <c r="B69" s="4">
         <v>33.456240000000001</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C69" s="4">
         <v>126.56238999999999</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D69" s="2">
         <v>33.455874631518299</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E69" s="2">
         <v>126.561907159626</v>
       </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11244" windowHeight="8088"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,204 +19,297 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+  <x:si>
+    <x:t>주변전실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생회관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어교육원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우편취급국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미래융합대학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총대의원회실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공과대학1호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교양강의동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수의과대학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국어문화원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동아리연합회실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중앙도서관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한라카페테리아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인재양성관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인문대학1호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인문대학2호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사범대학2호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상대학1호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의학전문대학원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강증진센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>법과정책연구원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외국어대학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제2운동장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보화본부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육과학연구소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테니스장</x:t>
+  </x:si>
   <x:si>
     <x:t>총학생회실</x:t>
   </x:si>
   <x:si>
+    <x:t>의과대학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재일제주인센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산학협력관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탐라문화연구원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아라뮤즈홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사범대학1호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공과대학4호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수회관</x:t>
+  </x:si>
+  <x:si>
     <x:t>H.R.A.</x:t>
   </x:si>
   <x:si>
+    <x:t>인권센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>법학전문대학원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과학영재교육원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간호대학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생군사교육단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아라컨벤션홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공과대학2호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NH농협은행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생상담센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상대학2호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평생교육원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사회과학대학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야외음악당</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약학대학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예비군연대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공과대학3호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공동실험실습관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주테크노파크바이오융합센터2호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생생활관5호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생생활관3호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수의과대학부설동물병원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>농업창업보육센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생생활관4호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해양과학대학1호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친환경농업연구소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어린이급식관리지원센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수학습지원센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감귤화훼과학기술센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주대학교골프아카데미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생생활광6호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주국제개발협력센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생생활관1호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공과대학부설공장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대학일자리플러스센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중앙디지털도서관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애학생지원센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원자력과학기술연구소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해양과학대학3호관</x:t>
+  </x:si>
+  <x:si>
     <x:t>의학전문대학원1호관</x:t>
   </x:si>
   <x:si>
-    <x:t>어린이급식관리지원센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수의과대학부설동물병원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생생활관3호관</x:t>
-  </x:si>
-  <x:si>
     <x:t>생명자원과학대학</x:t>
   </x:si>
   <x:si>
-    <x:t>학생생활관1호관</x:t>
+    <x:t>자연과학대학1호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지식재산교육센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해양과학대학4호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자연과학대학2호관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WISET제주지역센터</x:t>
   </x:si>
   <x:si>
     <x:t>학생생활관2호관</x:t>
   </x:si>
   <x:si>
-    <x:t>공과대학부설공장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한라카페테리아</x:t>
+    <x:t>real_user_target_coordinate_x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>real_user_target_coordinate_y</x:t>
   </x:si>
   <x:si>
     <x:t>바이오헬스소재개발연구지원센터</x:t>
   </x:si>
   <x:si>
-    <x:t>해양과학대학3호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자연과학대학2호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중앙디지털도서관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친환경농업연구소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생생활관4호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원자력과학기술연구소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해양과학대학4호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생생활광6호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>농업창업보육센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주대학교골프아카데미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해양과학대학1호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생생활관5호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자연과학대학1호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감귤화훼과학기술센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주테크노파크바이오융합센터2호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야외음악당</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공과대학1호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외국어대학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제2운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사회과학대학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>real_user_target_coordinate_x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>real_user_target_coordinate_y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교양강의동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미래융합대학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보화본부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어교육원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산학협력관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사범대학1호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의과대학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약학대학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대운동장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>법학전문대학원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공과대학2호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생회관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인문대학1호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경상대학1호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공과대학4호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아라뮤즈홀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평생교육원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인문대학2호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>area</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수의과대학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공과대학3호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주변전실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>법과정책연구원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중앙도서관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간호대학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수회관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테니스장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사범대학2호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인재양성관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의학전문대학원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경상대학2호관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아라컨벤션홀</x:t>
+    <x:t>안단테</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음악관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아라홀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>터울림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미술관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박물관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>법대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑센트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체육관</x:t>
   </x:si>
   <x:si>
     <x:t>본관</x:t>
@@ -225,50 +318,17 @@
     <x:t>정문</x:t>
   </x:si>
   <x:si>
-    <x:t>음악관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박물관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>후문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>법대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체육관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미술관</x:t>
-  </x:si>
-  <x:si>
     <x:t>user_target_coordinate_y</x:t>
   </x:si>
   <x:si>
     <x:t>user_target_coordinate_x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>터울림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑센트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안단테</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총대의원회실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동아리연합회실</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="9">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -309,6 +369,11 @@
       <x:sz val="11"/>
       <x:color rgb="ffc00000"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -340,7 +405,10 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -348,14 +416,14 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -367,10 +435,16 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="2">
+  <x:cellStyles count="3">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
-    <x:cellStyle name="표준 2" xfId="1"/>
+    <x:cellStyle name="표준 2" xfId="2"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1066,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E77"/>
+  <x:dimension ref="A1:E97"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:selection activeCell="A78" activeCellId="0" sqref="A78:A78"/>
+    <x:sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="D100" activeCellId="0" sqref="D100:D100"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1078,30 +1152,30 @@
     <x:col min="2" max="2" width="21.69921875" customWidth="1"/>
     <x:col min="3" max="3" width="23.59765625" customWidth="1"/>
     <x:col min="4" max="4" width="25.3984375" customWidth="1"/>
-    <x:col min="5" max="5" width="32.69921875" customWidth="1"/>
+    <x:col min="5" max="5" width="24.6015625" customWidth="1"/>
     <x:col min="7" max="7" width="3.59765625" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" t="s">
-        <x:v>52</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>75</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>74</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" t="s">
-        <x:v>46</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B2" s="3">
         <x:v>33.453463758142803</x:v>
@@ -1118,7 +1192,7 @@
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" t="s">
-        <x:v>51</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B3" s="3">
         <x:v>33.452781372955101</x:v>
@@ -1135,7 +1209,7 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" t="s">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B4" s="3">
         <x:v>33.455039999999997</x:v>
@@ -1152,7 +1226,7 @@
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" t="s">
-        <x:v>47</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="3">
         <x:v>33.454239999999999</x:v>
@@ -1169,7 +1243,7 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" t="s">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B6" s="3">
         <x:v>33.454210000000003</x:v>
@@ -1186,7 +1260,7 @@
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B7" s="3">
         <x:v>33.454740000000001</x:v>
@@ -1203,7 +1277,7 @@
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" t="s">
-        <x:v>61</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B8" s="3">
         <x:v>33.45523</x:v>
@@ -1220,7 +1294,7 @@
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" t="s">
-        <x:v>6</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B9" s="3">
         <x:v>33.457439999999998</x:v>
@@ -1237,7 +1311,7 @@
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" t="s">
-        <x:v>22</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B10" s="3">
         <x:v>33.4570397569615</x:v>
@@ -1254,7 +1328,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" t="s">
-        <x:v>12</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B11" s="3">
         <x:v>33.4570397569615</x:v>
@@ -1271,7 +1345,7 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" t="s">
-        <x:v>18</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B12" s="3">
         <x:v>33.454740000000001</x:v>
@@ -1288,7 +1362,7 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" t="s">
-        <x:v>24</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B13" s="3">
         <x:v>33.457955730273497</x:v>
@@ -1305,7 +1379,7 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" t="s">
-        <x:v>13</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B14" s="3">
         <x:v>33.457769999999996</x:v>
@@ -1322,7 +1396,7 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" t="s">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B15" s="3">
         <x:v>33.457086201835999</x:v>
@@ -1356,7 +1430,7 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B17" s="3">
         <x:v>33.456405024653399</x:v>
@@ -1373,7 +1447,7 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" t="s">
-        <x:v>48</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B18" s="3">
         <x:v>33.454740000000001</x:v>
@@ -1390,7 +1464,7 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" t="s">
-        <x:v>40</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B19" s="3">
         <x:v>33.452865807311703</x:v>
@@ -1407,7 +1481,7 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" t="s">
-        <x:v>2</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B20" s="3">
         <x:v>33.452865807311703</x:v>
@@ -1424,7 +1498,7 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" t="s">
-        <x:v>63</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="3">
         <x:v>33.452865807311703</x:v>
@@ -1441,7 +1515,7 @@
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" t="s">
-        <x:v>53</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B22" s="3">
         <x:v>33.451560000000001</x:v>
@@ -1458,7 +1532,7 @@
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" t="s">
-        <x:v>58</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B23" s="3">
         <x:v>33.455599999999997</x:v>
@@ -1475,7 +1549,7 @@
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" t="s">
-        <x:v>68</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B24" s="3">
         <x:v>33.452345682187399</x:v>
@@ -1492,7 +1566,7 @@
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" t="s">
-        <x:v>73</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B25" s="3">
         <x:v>33.452957482686898</x:v>
@@ -1509,7 +1583,7 @@
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" t="s">
-        <x:v>35</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B26" s="3">
         <x:v>33.456768628665799</x:v>
@@ -1526,7 +1600,7 @@
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" t="s">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B27" s="3">
         <x:v>33.457430000000002</x:v>
@@ -1543,7 +1617,7 @@
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" t="s">
-        <x:v>67</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B28" s="3">
         <x:v>33.459366178116703</x:v>
@@ -1560,7 +1634,7 @@
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" t="s">
-        <x:v>70</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B29" s="3">
         <x:v>33.450839840718203</x:v>
@@ -1577,7 +1651,7 @@
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B30" s="3">
         <x:v>33.459772940455998</x:v>
@@ -1594,7 +1668,7 @@
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" t="s">
-        <x:v>69</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B31" s="3">
         <x:v>33.458829999999999</x:v>
@@ -1611,7 +1685,7 @@
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B32" s="3">
         <x:v>33.4587799830216</x:v>
@@ -1628,7 +1702,7 @@
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" t="s">
-        <x:v>20</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B33" s="3">
         <x:v>33.457439999999998</x:v>
@@ -1645,7 +1719,7 @@
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" t="s">
-        <x:v>17</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B34" s="3">
         <x:v>33.458166951720401</x:v>
@@ -1662,7 +1736,7 @@
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" t="s">
-        <x:v>3</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B35" s="3">
         <x:v>33.457995642520999</x:v>
@@ -1679,7 +1753,7 @@
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" t="s">
-        <x:v>15</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B36" s="3">
         <x:v>33.457798707328699</x:v>
@@ -1696,7 +1770,7 @@
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" t="s">
-        <x:v>55</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="3">
         <x:v>33.457747689935999</x:v>
@@ -1713,7 +1787,7 @@
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" t="s">
-        <x:v>9</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B38" s="3">
         <x:v>33.455856118826901</x:v>
@@ -1730,7 +1804,7 @@
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" t="s">
-        <x:v>42</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B39" s="3">
         <x:v>33.4557</x:v>
@@ -1747,7 +1821,7 @@
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B40" s="3">
         <x:v>33.454740000000001</x:v>
@@ -1764,7 +1838,7 @@
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" t="s">
-        <x:v>26</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B41" s="3">
         <x:v>33.452397254174599</x:v>
@@ -1781,7 +1855,7 @@
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B42" s="3">
         <x:v>33.451442781491799</x:v>
@@ -1798,7 +1872,7 @@
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" t="s">
-        <x:v>4</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B43" s="3">
         <x:v>33.4514008717575</x:v>
@@ -1815,7 +1889,7 @@
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" t="s">
-        <x:v>14</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B44" s="3">
         <x:v>33.452663315646603</x:v>
@@ -1832,7 +1906,7 @@
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" t="s">
-        <x:v>57</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B45" s="3">
         <x:v>33.452663315646603</x:v>
@@ -1849,7 +1923,7 @@
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B46" s="3">
         <x:v>33.453130000000002</x:v>
@@ -1866,7 +1940,7 @@
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" t="s">
-        <x:v>65</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B47" s="3">
         <x:v>33.453130000000002</x:v>
@@ -1883,7 +1957,7 @@
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" t="s">
-        <x:v>59</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B48" s="3">
         <x:v>33.452854048347398</x:v>
@@ -1900,7 +1974,7 @@
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B49" s="3">
         <x:v>33.453533816712202</x:v>
@@ -1917,7 +1991,7 @@
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" t="s">
-        <x:v>71</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B50" s="3">
         <x:v>33.453533816712202</x:v>
@@ -1934,7 +2008,7 @@
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" t="s">
-        <x:v>56</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B51" s="3">
         <x:v>33.453533816712202</x:v>
@@ -1951,7 +2025,7 @@
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" t="s">
-        <x:v>49</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B52" s="3">
         <x:v>33.454659999999997</x:v>
@@ -1968,7 +2042,7 @@
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="A53" t="s">
-        <x:v>37</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B53" s="3">
         <x:v>33.4540791799812</x:v>
@@ -1985,7 +2059,7 @@
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="A54" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B54" s="3">
         <x:v>33.4540791799812</x:v>
@@ -2002,7 +2076,7 @@
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="A55" t="s">
-        <x:v>45</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B55" s="3">
         <x:v>33.455006568496501</x:v>
@@ -2019,7 +2093,7 @@
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="A56" t="s">
-        <x:v>72</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B56" s="3">
         <x:v>33.456229999999998</x:v>
@@ -2036,7 +2110,7 @@
     </x:row>
     <x:row r="57" spans="1:5">
       <x:c r="A57" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B57" s="3">
         <x:v>33.456659999999999</x:v>
@@ -2053,7 +2127,7 @@
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" t="s">
-        <x:v>11</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B58" s="3">
         <x:v>33.457740000000001</x:v>
@@ -2070,7 +2144,7 @@
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" t="s">
-        <x:v>60</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B59" s="3">
         <x:v>33.455679046767997</x:v>
@@ -2087,7 +2161,7 @@
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" t="s">
-        <x:v>7</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B60" s="3">
         <x:v>33.45158</x:v>
@@ -2104,7 +2178,7 @@
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" t="s">
-        <x:v>8</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B61" s="3">
         <x:v>33.450379743866598</x:v>
@@ -2121,7 +2195,7 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" t="s">
-        <x:v>5</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B62" s="3">
         <x:v>33.451786508352399</x:v>
@@ -2138,7 +2212,7 @@
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" t="s">
-        <x:v>16</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B63" s="3">
         <x:v>33.450976585061603</x:v>
@@ -2155,7 +2229,7 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B64" s="3">
         <x:v>33.452287541677897</x:v>
@@ -2172,7 +2246,7 @@
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" t="s">
-        <x:v>19</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B65" s="3">
         <x:v>33.4535344433503</x:v>
@@ -2189,7 +2263,7 @@
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" t="s">
-        <x:v>62</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B66" s="3">
         <x:v>33.45308</x:v>
@@ -2206,7 +2280,7 @@
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B67" s="3">
         <x:v>33.454720000000002</x:v>
@@ -2223,7 +2297,7 @@
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" t="s">
-        <x:v>34</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B68" s="3">
         <x:v>33.455629999999999</x:v>
@@ -2240,7 +2314,7 @@
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="A69" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B69" s="3">
         <x:v>33.456240000000001</x:v>
@@ -2257,7 +2331,7 @@
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="A70" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B70" s="3">
         <x:v>33.455006568496501</x:v>
@@ -2274,7 +2348,7 @@
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="A71" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B71" s="3">
         <x:v>33.455006568496501</x:v>
@@ -2291,7 +2365,7 @@
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="A72" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B72" s="3">
         <x:v>33.455006568496501</x:v>
@@ -2308,7 +2382,7 @@
     </x:row>
     <x:row r="73" spans="1:5">
       <x:c r="A73" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B73" s="3">
         <x:v>33.455006568496501</x:v>
@@ -2325,7 +2399,7 @@
     </x:row>
     <x:row r="74" spans="1:5">
       <x:c r="A74" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B74" s="3">
         <x:v>33.455006568496501</x:v>
@@ -2342,7 +2416,7 @@
     </x:row>
     <x:row r="75" spans="1:5">
       <x:c r="A75" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B75" s="3">
         <x:v>33.455006568496501</x:v>
@@ -2359,7 +2433,7 @@
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="A76" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B76" s="3">
         <x:v>33.455006568496501</x:v>
@@ -2376,7 +2450,7 @@
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="A77" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B77" s="3">
         <x:v>33.455006568496501</x:v>
@@ -2389,6 +2463,346 @@
       </x:c>
       <x:c r="E77" s="2">
         <x:v>126.560556273347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:5">
+      <x:c r="A78" s="5" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B78" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C78" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D78" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E78" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:5">
+      <x:c r="A79" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B79" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C79" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D79" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E79" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:5">
+      <x:c r="A80" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B80" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C80" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D80" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E80" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:5">
+      <x:c r="A81" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B81" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C81" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D81" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E81" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:5">
+      <x:c r="A82" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B82" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C82" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D82" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E82" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:5">
+      <x:c r="A83" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B83" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C83" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D83" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E83" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:5">
+      <x:c r="A84" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B84" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C84" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D84" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E84" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:5">
+      <x:c r="A85" s="5" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B85" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C85" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D85" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E85" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:5">
+      <x:c r="A86" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B86" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C86" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D86" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E86" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:5">
+      <x:c r="A87" s="5" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B87" s="3">
+        <x:v>33.456240000000001</x:v>
+      </x:c>
+      <x:c r="C87" s="3">
+        <x:v>126.56238999999999</x:v>
+      </x:c>
+      <x:c r="D87" s="2">
+        <x:v>33.455874631518299</x:v>
+      </x:c>
+      <x:c r="E87" s="2">
+        <x:v>126.561907159626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:5">
+      <x:c r="A88" s="5" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B88" s="3">
+        <x:v>33.452854048347398</x:v>
+      </x:c>
+      <x:c r="C88" s="3">
+        <x:v>126.55993523335199</x:v>
+      </x:c>
+      <x:c r="D88" s="2">
+        <x:v>33.452854048347398</x:v>
+      </x:c>
+      <x:c r="E88" s="2">
+        <x:v>126.55993523335199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:5">
+      <x:c r="A89" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B89" s="3">
+        <x:v>33.458829999999999</x:v>
+      </x:c>
+      <x:c r="C89" s="3">
+        <x:v>126.56117</x:v>
+      </x:c>
+      <x:c r="D89" s="2">
+        <x:v>33.458775326604403</x:v>
+      </x:c>
+      <x:c r="E89" s="2">
+        <x:v>126.561849545466</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:5">
+      <x:c r="A90" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B90" s="3">
+        <x:v>33.453463758142803</x:v>
+      </x:c>
+      <x:c r="C90" s="4">
+        <x:v>126.558351054968</x:v>
+      </x:c>
+      <x:c r="D90" s="2">
+        <x:v>33.453463758142803</x:v>
+      </x:c>
+      <x:c r="E90" s="1">
+        <x:v>126.558351054968</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:5">
+      <x:c r="A91" s="5" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B91" s="3">
+        <x:v>33.457740000000001</x:v>
+      </x:c>
+      <x:c r="C91" s="3">
+        <x:v>126.55973</x:v>
+      </x:c>
+      <x:c r="D91" s="2">
+        <x:v>33.458130541344097</x:v>
+      </x:c>
+      <x:c r="E91" s="2">
+        <x:v>126.559900511121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:5">
+      <x:c r="A92" s="5" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B92" s="3">
+        <x:v>33.457955730273497</x:v>
+      </x:c>
+      <x:c r="C92" s="3">
+        <x:v>126.56465300308</x:v>
+      </x:c>
+      <x:c r="D92" s="2">
+        <x:v>33.457955730273497</x:v>
+      </x:c>
+      <x:c r="E92" s="2">
+        <x:v>126.56465300308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:5">
+      <x:c r="A93" s="5" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B93" s="3">
+        <x:v>33.455629999999999</x:v>
+      </x:c>
+      <x:c r="C93" s="3">
+        <x:v>126.56385</x:v>
+      </x:c>
+      <x:c r="D93" s="2">
+        <x:v>33.455648860411003</x:v>
+      </x:c>
+      <x:c r="E93" s="2">
+        <x:v>126.564360673393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:5">
+      <x:c r="A94" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B94" s="3">
+        <x:v>33.454740000000001</x:v>
+      </x:c>
+      <x:c r="C94" s="3">
+        <x:v>126.56428</x:v>
+      </x:c>
+      <x:c r="D94" s="2">
+        <x:v>33.4549415658241</x:v>
+      </x:c>
+      <x:c r="E94" s="2">
+        <x:v>126.563210633754</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:5">
+      <x:c r="A95" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B95" s="3">
+        <x:v>33.45523</x:v>
+      </x:c>
+      <x:c r="C95" s="3">
+        <x:v>126.5643</x:v>
+      </x:c>
+      <x:c r="D95" s="2">
+        <x:v>33.455335099720898</x:v>
+      </x:c>
+      <x:c r="E95" s="2">
+        <x:v>126.563590498887</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:5">
+      <x:c r="A96" s="5" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B96" s="3">
+        <x:v>33.455006568496501</x:v>
+      </x:c>
+      <x:c r="C96" s="3">
+        <x:v>126.560556273347</x:v>
+      </x:c>
+      <x:c r="D96" s="2">
+        <x:v>33.455006568496501</x:v>
+      </x:c>
+      <x:c r="E96" s="2">
+        <x:v>126.560556273347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:5">
+      <x:c r="A97" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B97" s="7">
+        <x:v>33.454273397454202</x:v>
+      </x:c>
+      <x:c r="C97" s="7">
+        <x:v>126.566784934843</x:v>
+      </x:c>
+      <x:c r="D97" s="6">
+        <x:v>33.454273397454202</x:v>
+      </x:c>
+      <x:c r="E97">
+        <x:v>126.566784934843</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
